--- a/Data/Tolerancia_CiruelaCan.xlsx
+++ b/Data/Tolerancia_CiruelaCan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorja\Desktop\CarozosTodo\Carozosgpt\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorja\Desktop\Carozosapp\Carozosapp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163DF580-CF01-49C5-B425-0B12BC85FCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA754E-80D2-4F1E-89E4-503E484138E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{75E628AF-F22B-4B91-AB0A-1902DC699033}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>CIRUELAS</t>
   </si>
   <si>
-    <t>CANDY PLUMS</t>
+    <t>CANDY</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
